--- a/biology/Botanique/Teucrium_fruticans/Teucrium_fruticans.xlsx
+++ b/biology/Botanique/Teucrium_fruticans/Teucrium_fruticans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teucrium fruticans, la Germandrée arbustive ou Germandrée en arbre, est une espèce végétale de la famille des Lamiaceae, du genre Teucrium dans les classification classique et phylogénétique. Cette plante fait partie des espèces protégées en France[1], elle n'est signalée que le long du littoral méditerranéen jusqu'aux Pyrénées-Orientales ; elle est cultivée, rarement spontanée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teucrium fruticans, la Germandrée arbustive ou Germandrée en arbre, est une espèce végétale de la famille des Lamiaceae, du genre Teucrium dans les classification classique et phylogénétique. Cette plante fait partie des espèces protégées en France, elle n'est signalée que le long du littoral méditerranéen jusqu'aux Pyrénées-Orientales ; elle est cultivée, rarement spontanée.
 </t>
         </is>
       </c>
